--- a/src/utest/testdata/testdata1.xlsx
+++ b/src/utest/testdata/testdata1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Documents/06code/BearFramework/src/utest/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D7DA5-DA64-AD43-9EAA-7FF0D5903FF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA222025-DC57-B946-B410-C0BAF0149102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="5060" windowWidth="20240" windowHeight="12720" activeTab="1" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
+    <workbookView xWindow="400" yWindow="2280" windowWidth="22880" windowHeight="9800" activeTab="1" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>DataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,19 +56,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>department</t>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${time.now}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>superior</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test9528</t>
   </si>
   <si>
     <t>test9528</t>
@@ -115,7 +112,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3]</t>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$json{{"name":"123"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$list{3.int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$list{3,4.int,5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,9 +285,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -293,8 +303,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4118,10 +4128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2897003-447D-224F-966C-D66EF2096CF4}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4130,84 +4140,96 @@
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="17">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>8</v>
+      <c r="G1" s="12" t="s">
+        <v>9</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>17</v>
+      <c r="J1" s="12" t="s">
+        <v>18</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>19</v>
+      <c r="K1" s="12" t="s">
+        <v>20</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="M1" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="17" t="s">
-        <v>18</v>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>22</v>
+      <c r="K2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16"/>
+    <row r="3" spans="1:13">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4215,7 +4237,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4223,7 +4245,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4231,10 +4253,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="D8" s="1"/>
     </row>
   </sheetData>

--- a/src/utest/testdata/testdata1.xlsx
+++ b/src/utest/testdata/testdata1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Documents/06code/BearFramework/src/utest/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA222025-DC57-B946-B410-C0BAF0149102}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F61F2C-6F62-3B4E-B269-B8854EF500B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="2280" windowWidth="22880" windowHeight="9800" activeTab="1" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
   </bookViews>
@@ -4131,7 +4131,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/src/utest/testdata/testdata1.xlsx
+++ b/src/utest/testdata/testdata1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Documents/06code/BearFramework/src/utest/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F61F2C-6F62-3B4E-B269-B8854EF500B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA643FC4-A09C-1C4E-A90F-BED82185EB55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="2280" windowWidth="22880" windowHeight="9800" activeTab="1" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
+    <workbookView xWindow="1840" yWindow="1680" windowWidth="22880" windowHeight="9800" activeTab="1" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -4050,7 +4051,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4131,13 +4132,15 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17">
@@ -4268,4 +4271,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CD305E-0CF8-264E-B458-57524CDA24DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/utest/testdata/testdata1.xlsx
+++ b/src/utest/testdata/testdata1.xlsx
@@ -1,158 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirius/Documents/06code/BearFramework/src/utest/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA643FC4-A09C-1C4E-A90F-BED82185EB55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1680" windowWidth="22880" windowHeight="9800" activeTab="1" xr2:uid="{7CD8C965-9F4E-9845-AB4A-4BE0FE034B6E}"/>
+    <workbookView windowHeight="17100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>DataID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
   <si>
     <t>正确的用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kc@123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superior</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>test9528</t>
+  </si>
+  <si>
+    <t>137${random.int(8)}</t>
   </si>
   <si>
     <t>${time.now}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>superior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test9528</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>137${random.int(8)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test9527@154.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>roles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>$list{3.int}</t>
   </si>
   <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>$list{3,4.int,5}</t>
   </si>
   <si>
     <t>$json{{"name":"123"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$list{3.int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$list{3,4.int,5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,19 +127,153 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="MicrosoftYaHei"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +286,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -196,137 +483,403 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -342,33 +895,27 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="page1image43146368">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6D197E-803D-814A-B252-5FB895923B1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="1765300"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="page1image43146368"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1109980"/>
           <a:ext cx="1866900" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -403,33 +950,27 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="page1image43144256">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC1ED2C-AD07-2843-B4DB-69E7543960CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="2870200"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="page1image43144256"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1323340"/>
           <a:ext cx="1866900" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -464,33 +1005,27 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="page2image43094144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7814782-5989-FC4F-A28C-CEE0745E6410}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="7912100"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="page2image43094144"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1323340"/>
           <a:ext cx="1866900" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -525,33 +1060,27 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="page5image43113024">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AD0630-ECAD-9642-8583-300A94EF7424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6540500" y="4597400"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="page5image43113024"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1323340"/>
           <a:ext cx="3860800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -586,33 +1115,27 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="page5image43114752">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E2F5F1-1611-CF49-A973-33077096B553}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6540500" y="4800600"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="page5image43114752"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1323340"/>
           <a:ext cx="3860800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -647,33 +1170,27 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6" descr="page5image43114560">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEECEAD4-09CA-9246-AF7D-EEF9FF996AF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10414000" y="4800600"/>
+        <xdr:cNvPr id="7" name="图片 6" descr="page5image43114560"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8255000" y="1323340"/>
           <a:ext cx="3860800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -701,63 +1218,57 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="page5image43120896"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16408400" y="1323340"/>
+          <a:ext cx="3200400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7" descr="page5image43120896">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EF58D4-79A3-0247-9441-7C5ED285375E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14287500" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -769,34 +1280,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8" descr="page5image43114176">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43216E17-E993-E94A-9F32-9CBED21C3E38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18161000" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="9" name="图片 8" descr="page5image43114176"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19608800" y="1323340"/>
+          <a:ext cx="3276600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -830,34 +1335,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9" descr="page5image43116096">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B30968-4B53-8944-9625-78057E1F4069}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="22034500" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="10" name="图片 9" descr="page5image43116096"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22898100" y="1323340"/>
+          <a:ext cx="3162300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,34 +1390,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10" descr="page5image43122240">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAEFF27-7218-864F-AB28-8C6CF7F9A6FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="25908000" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="11" name="图片 10" descr="page5image43122240"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26073100" y="1323340"/>
+          <a:ext cx="3162300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,34 +1445,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11" descr="page5image43109376">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4547E72A-2A3E-CF44-983E-DD689BADBDF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="29781500" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="12" name="图片 11" descr="page5image43109376"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29248100" y="1323340"/>
+          <a:ext cx="3302000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,34 +1500,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12" descr="page5image44029760">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23C1D19-6C4A-9947-9C92-E9A37B15DA45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="33655000" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="13" name="图片 12" descr="page5image44029760"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32562800" y="1323340"/>
+          <a:ext cx="3162300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1074,34 +1555,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13" descr="page5image44034560">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B679F3F8-5628-0148-A1D9-F092E5F445E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37528500" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="14" name="图片 13" descr="page5image44034560"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35737800" y="1323340"/>
+          <a:ext cx="3162300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1135,34 +1610,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14" descr="page5image44035328">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFF6331-F4EC-6C4B-8CD2-2EE96F761E1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="41402000" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="15" name="图片 14" descr="page5image44035328"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38912800" y="1323340"/>
+          <a:ext cx="3302000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1196,34 +1665,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15" descr="page5image44033600">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0E8E60-495B-8340-866E-2C9B58BA1A89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="45275500" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="16" name="图片 15" descr="page5image44033600"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42227500" y="1323340"/>
+          <a:ext cx="3162300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,34 +1720,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16" descr="page5image44037824">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34568D10-0754-7547-9E3C-B7BE535C2CC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="49149000" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="17" name="图片 16" descr="page5image44037824"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45402500" y="1323340"/>
+          <a:ext cx="3162300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1311,63 +1768,57 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="page5image44039936"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48577500" y="1323340"/>
+          <a:ext cx="3263900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17" descr="page5image44039936">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5717596-56A7-5242-BADA-27969FC2A63B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="53022500" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1379,34 +1830,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18" descr="page5image44033408">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08779537-AAD3-6747-9ADE-3458EF12C84C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="56896000" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="19" name="图片 18" descr="page5image44033408"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51841400" y="1323340"/>
+          <a:ext cx="3213100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1440,34 +1885,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19" descr="page5image44034176">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEF5971-9511-D94A-BC51-1CF367851C36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="60769500" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="20" name="图片 19" descr="page5image44034176"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55067200" y="1323340"/>
+          <a:ext cx="3162300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1494,63 +1933,57 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20" descr="page5image44035136"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="58242200" y="1323340"/>
+          <a:ext cx="3200400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20" descr="page5image44035136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BD6398-BBE0-784A-AE60-67BCA4960CB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="64643000" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1562,34 +1995,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21" descr="page5image44036480">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03E81B7-F6FD-5946-80B5-24BAD290BF11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="68516500" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="22" name="图片 21" descr="page5image44036480"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61442600" y="1323340"/>
+          <a:ext cx="3276600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,34 +2050,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22" descr="page5image44036288">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30297296-1935-F045-940C-BD9D04D15413}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="72390000" y="4800600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="23" name="图片 22" descr="page5image44036288"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64731900" y="1323340"/>
+          <a:ext cx="3162300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,34 +2105,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="图片 129" descr="page9image43694144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299D2757-A96E-EC40-89BE-10D0B604E273}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="1333500"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="130" name="图片 129" descr="page9image43694144"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,34 +2160,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="图片 130" descr="page9image43693952">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3FD424-F7BE-0541-BC04-6A0E123F5267}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="2933700"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="131" name="图片 130" descr="page9image43693952"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1806,34 +2215,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="图片 131" descr="page9image43682624">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65C53EE-0FE5-FF4F-A1ED-267EA5A960CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="3784600"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="132" name="图片 131" descr="page9image43682624"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1867,34 +2270,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="图片 132" descr="page9image43691648">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D64F3B5-AC73-5E43-8EF9-E4172B24FEA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="4610100"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="133" name="图片 132" descr="page9image43691648"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1928,34 +2325,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="134" name="图片 133" descr="page9image43689536">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D615E4-A7F9-F24A-B742-C76D2D71EB8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="5435600"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="134" name="图片 133" descr="page9image43689536"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,34 +2380,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="图片 134" descr="page9image43684928">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2120FF21-CAE0-374B-85BE-24F58DE3BE18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="6261100"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="135" name="图片 134" descr="page9image43684928"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2050,34 +2435,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="图片 135" descr="page9image43685888">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF57ED57-015B-5A49-B845-1C0E0210E5C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="7086600"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="136" name="图片 135" descr="page9image43685888"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2111,34 +2490,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="图片 136" descr="page9image43683008">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC82603-5FA7-BB43-9561-CF75DEA12C07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="7912100"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="137" name="图片 136" descr="page9image43683008"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2172,34 +2545,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="图片 137" descr="page9image43679936">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099BA6A1-8A86-EE4A-B96D-FA437F6C3B24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="8750300"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="138" name="图片 137" descr="page9image43679936"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2233,34 +2600,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="图片 138" descr="page9image43695872">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B02B8C6-C29D-754F-A3CE-2B1AB6C85ACE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="9588500"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="139" name="图片 138" descr="page9image43695872"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,34 +2655,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="140" name="图片 139" descr="page9image43681472">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06E8825-3CEA-4F48-8906-B18F6AF0A132}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="10414000"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="140" name="图片 139" descr="page9image43681472"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2355,34 +2710,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="图片 140" descr="page9image43681664">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7CF534-1755-2245-A7FB-1E196BEEEEB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="11455400"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="141" name="图片 140" descr="page9image43681664"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2416,34 +2765,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="142" name="图片 141" descr="page9image43692800">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5F805B-2917-6F46-861C-DFDE035B0D66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="12280900"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="142" name="图片 141" descr="page9image43692800"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2477,34 +2820,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="143" name="图片 142" descr="page9image43680128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4811EB-CD07-0344-A803-5096C8B5466D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="13106400"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="143" name="图片 142" descr="page9image43680128"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2538,34 +2875,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="图片 143" descr="page9image43681280">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2567682A-6C79-834A-80A9-6B0E015DA619}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="13931900"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="144" name="图片 143" descr="page9image43681280"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2599,34 +2930,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="图片 144" descr="page9image43682240">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C815AA42-F48E-3C4B-884E-CC382185F4E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="14757400"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="145" name="图片 144" descr="page9image43682240"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2660,34 +2985,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="146" name="图片 145" descr="page9image43686464">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE09B7DE-4879-ED43-AA5B-16C3454CE172}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="15582900"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="146" name="图片 145" descr="page9image43686464"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,34 +3040,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="图片 146" descr="page9image43681856">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F29C3EC-E096-0043-AAB2-7A4CE4F46E3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="16421100"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="147" name="图片 146" descr="page9image43681856"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2782,34 +3095,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="图片 147" descr="page9image43694912">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C51A441-F341-9B46-B75A-9D272DD5BD1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="17259300"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="148" name="图片 147" descr="page9image43694912"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2843,34 +3150,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="图片 148" descr="page9image43682432">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5682CE9D-F4AF-164B-AF9E-A5024505FAB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="18084800"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="149" name="图片 148" descr="page9image43682432"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2904,34 +3205,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="图片 149" descr="page9image43683200">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCB1DDA-16B6-AC4C-9F53-3D55C1829ACF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="18910300"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="150" name="图片 149" descr="page9image43683200"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,34 +3260,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="图片 150" descr="page9image43689152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508DEDF-9777-CE46-8FAF-724B40085871}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="19735800"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="151" name="图片 150" descr="page9image43689152"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3026,34 +3315,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="图片 151" descr="page9image43679744">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ABE9D3-D0B8-274A-B70D-E05D80BF494B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="20561300"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="152" name="图片 151" descr="page9image43679744"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3087,34 +3370,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="图片 152" descr="page9image43681088">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FBD02D-B0AA-E040-A395-5C7D17831C51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="21386800"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="153" name="图片 152" descr="page9image43681088"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3148,34 +3425,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="图片 153" descr="page9image43691072">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF9FB5B-8DB1-A24B-B24C-D9E4657C1840}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="22212300"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="154" name="图片 153" descr="page9image43691072"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3209,34 +3480,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="图片 154" descr="page9image43685504">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F86F57-8444-7F47-BA98-F4217670E1C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="23037800"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="155" name="图片 154" descr="page9image43685504"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3270,34 +3535,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="156" name="图片 155" descr="page9image43680896">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B48CA5C-EF4A-584B-B7CA-D14BB355A12F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="23863300"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="156" name="图片 155" descr="page9image43680896"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3331,34 +3590,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="图片 156" descr="page9image43682048">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644C1758-2F0D-694D-A137-BEE9D7D9C912}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9893300" y="24688800"/>
-          <a:ext cx="5626100" cy="0"/>
+        <xdr:cNvPr id="157" name="图片 156" descr="page9image43682048"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1323340"/>
+          <a:ext cx="5486400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3381,7 +3634,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3390,41 +3643,35 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="page1image43146368">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DDF18A-13BB-6743-93C6-22D4C51B5307}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="1155700"/>
-          <a:ext cx="1866900" cy="0"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="page1image43146368"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1089660"/>
+          <a:ext cx="1587500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3451,41 +3698,35 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="page1image43144256">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AA3723-52D8-2F47-93C1-C3A7F510A186}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="1371600"/>
-          <a:ext cx="1866900" cy="0"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="page1image43144256"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1303020"/>
+          <a:ext cx="1587500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3512,41 +3753,35 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="page2image43094144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6403E275-14AE-F049-95D2-0DB17236A549}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="825500" y="1371600"/>
-          <a:ext cx="1866900" cy="0"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="page2image43094144"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1303020"/>
+          <a:ext cx="1587500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3580,34 +3815,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="page5image43113024">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D238B41-8268-BC46-B8E7-4CA5A151DCCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4521200" y="1371600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="5" name="图片 4" descr="page5image43113024"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1303020"/>
+          <a:ext cx="3721100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3641,34 +3870,28 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="page5image43114752">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ADF625-52ED-FC48-B93B-407EAD211FC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4521200" y="1371600"/>
-          <a:ext cx="3860800" cy="0"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="page5image43114752"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2429510" y="1303020"/>
+          <a:ext cx="3721100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3690,46 +3913,40 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3873500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6" descr="page5image43114560">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D3E1AE-0BBE-9F42-BEFE-3F84995DE26A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8394700" y="1371600"/>
-          <a:ext cx="3860800" cy="0"/>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="page5image43114560"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3115310" y="1303020"/>
+          <a:ext cx="3733800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3794,7 +4011,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3827,26 +4044,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3879,23 +4079,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4037,251 +4220,278 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A7E581-A715-3F4A-B9DA-89175F56E0BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="27.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="57.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="14" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23" customHeight="1">
+    <row r="2" ht="23" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" ht="16.8" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" ht="16.8" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" ht="16.8" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="17">
+    <row r="6" ht="16.8" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FFF3C873-1FB3-144F-A6E2-C131214758A6}"/>
+    <hyperlink ref="D2" r:id="rId2" display="kc@123456"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2897003-447D-224F-966C-D66EF2096CF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="14" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>7</v>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>9</v>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12" t="s">
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" ht="16.8" spans="1:13">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="17">
+    <row r="5" ht="16.8" spans="1:13">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" ht="16.8" spans="1:13">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="D7" s="1"/>
+    <row r="7" spans="4:4">
+      <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="D8" s="1"/>
+    <row r="8" spans="4:4">
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="!@#" xr:uid="{59632290-7543-C94A-B945-2C70F01F0582}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{D040B466-36E1-7C45-9B08-FAE87ECB6AB8}"/>
+    <hyperlink ref="K2" r:id="rId2" display="$list{3.int}"/>
+    <hyperlink ref="I2" r:id="rId3" display="test9527@154.com"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CD305E-0CF8-264E-B458-57524CDA24DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>